--- a/data/trans_camb/P25_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_3-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>12,33</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,88</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 6,83</t>
+          <t>-5,65; 11,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 4,89</t>
+          <t>-9,08; 6,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 6,8</t>
+          <t>-9,35; 6,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 7,38</t>
+          <t>-8,26; 4,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 5,57</t>
+          <t>-5,46; 9,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 4,66</t>
+          <t>4,62; 22,18</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 5,25</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 5,49</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 12,31</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-6,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>-13,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>86,04%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,43%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 52,48</t>
+          <t>-28,21; 106,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 36,66</t>
+          <t>-46,15; 56,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 54,78</t>
+          <t>-47,26; 58,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 58,67</t>
+          <t>-49,09; 48,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 40,91</t>
+          <t>-32,53; 81,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 34,04</t>
+          <t>23,72; 212,99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-30,54; 42,88</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-27,24; 42,99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 97,72</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,39</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 6,15</t>
+          <t>-11,41; 5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 3,03</t>
+          <t>-12,86; 3,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 9,04</t>
+          <t>-6,46; 12,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 8,15</t>
+          <t>-1,75; 11,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 6,37</t>
+          <t>-3,5; 9,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 3,71</t>
+          <t>0,4; 14,27</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,04; 6,66</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 4,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,29; 11,29</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>-18,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-29,33%</t>
+          <t>-29,02%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37,14%</t>
+          <t>68,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>40,44%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,25%</t>
+          <t>103,18%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,64%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48,22%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 50,38</t>
+          <t>-55,31; 44,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-64,07; 25,84</t>
+          <t>-60,04; 27,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 137,74</t>
+          <t>-31,08; 99,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 129,03</t>
+          <t>-22,71; 253,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 62,49</t>
+          <t>-38,01; 203,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 36,05</t>
+          <t>-1,92; 319,4</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-30,19; 73,84</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-41,04; 56,27</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 131,73</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>-5,42</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,08</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 2,03</t>
+          <t>-20,71; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 11,32</t>
+          <t>-15,75; 11,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 12,67</t>
+          <t>-7,82; 25,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 16,73</t>
+          <t>-12,76; 11,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 3,89</t>
+          <t>-13,15; 12,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 11,21</t>
+          <t>-19,68; 1,57</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-12,32; 4,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,61; 8,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-8,91; 10,42</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-66,84%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>-7,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>108,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,42%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-23,2%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>-75,93%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-44,3%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-6,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 147,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,98; 343,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,96; 317,06</t>
+          <t>-72,51; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,23; 346,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,41; 85,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 203,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-94,2; 361,6</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-76,81; 472,3</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,46</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>8,65</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 3,85</t>
+          <t>-6,16; 4,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 1,78</t>
+          <t>-7,65; 2,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,03</t>
+          <t>-4,18; 7,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 6,44</t>
+          <t>-3,25; 5,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,72</t>
+          <t>-2,56; 6,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,07</t>
+          <t>3,43; 14,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 3,59</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,71; 3,16</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 9,25</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,48%</t>
+          <t>-5,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-16,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>82,01%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,46%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>41,73%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 30,49</t>
+          <t>-34,88; 37,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 16,42</t>
+          <t>-42,77; 20,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 58,9</t>
+          <t>-24,73; 57,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 63,91</t>
+          <t>-26,65; 61,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 29,88</t>
+          <t>-19,89; 82,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,42; 24,59</t>
+          <t>27,6; 178,09</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-25,4; 32,15</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-25,82; 28,56</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>8,71; 85,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
